--- a/CASUAL/LA CHO/MENDOZA, MARIA ABEGAIL AUSTRIA.xlsx
+++ b/CASUAL/LA CHO/MENDOZA, MARIA ABEGAIL AUSTRIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>PERIOD</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2290,7 +2293,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2637,12 +2640,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3405" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="3405" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2810,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>17.917000000000002</v>
+        <v>19.417000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2817,7 +2820,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>23.917000000000002</v>
+        <v>25.417000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3293,15 +3296,17 @@
       <c r="B32" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="39">
         <v>1</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
@@ -3314,25 +3319,39 @@
       <c r="A33" s="40">
         <v>45200</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H33" s="39"/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H33" s="39">
+        <v>1</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="49">
+        <v>45224</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="39"/>
+      <c r="D34" s="39">
+        <v>1</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13" t="str">
@@ -3342,10 +3361,14 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="49">
+        <v>45252</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>45261</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -3361,7 +3384,9 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="48" t="s">
+        <v>52</v>
+      </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3377,7 +3402,9 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="40">
+        <v>45292</v>
+      </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -3393,7 +3420,9 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="40">
+        <v>45323</v>
+      </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -3409,7 +3438,9 @@
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="40">
+        <v>45352</v>
+      </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -3425,7 +3456,9 @@
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="40">
+        <v>45383</v>
+      </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
@@ -3441,7 +3474,9 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="40">
+        <v>45413</v>
+      </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
@@ -3457,7 +3492,9 @@
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="40">
+        <v>45444</v>
+      </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
@@ -3473,7 +3510,9 @@
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="40">
+        <v>45474</v>
+      </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
@@ -3489,7 +3528,9 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="40">
+        <v>45505</v>
+      </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
@@ -3505,7 +3546,9 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40">
+        <v>45536</v>
+      </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
@@ -3521,7 +3564,9 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="40">
+        <v>45566</v>
+      </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
@@ -3537,7 +3582,9 @@
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="40">
+        <v>45597</v>
+      </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
@@ -3553,7 +3600,9 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="40">
+        <v>45627</v>
+      </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -4881,20 +4930,36 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
